--- a/Simulation Results 010920.xlsx
+++ b/Simulation Results 010920.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrianLam/UTSC Research/Plaut_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4671115-30C6-E247-BDD1-33C7E67410AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D3CE00-AA6A-7F44-B6F8-D064F29AB8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulation 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Simulation 3" sheetId="3" r:id="rId3"/>
+    <sheet name="N" sheetId="1" r:id="rId1"/>
+    <sheet name="2N" sheetId="2" r:id="rId2"/>
+    <sheet name="3N" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1396,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921E4F-5EDE-5B4E-8C59-9131F66B71AC}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AN61" sqref="AN61"/>
     </sheetView>
   </sheetViews>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30168-F67C-BC4E-A581-6173ACDBEC56}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
